--- a/biology/Zoologie/Chlorostrymon_clenchi/Chlorostrymon_clenchi.xlsx
+++ b/biology/Zoologie/Chlorostrymon_clenchi/Chlorostrymon_clenchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostrymon clenchi est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, sous-famille des Theclinae et du genre Chlorostrymon.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Chlorostrymon clenchi a été décrite en 1943 par les entomologistes américains William Phillips Comstock (d) et Edgar Irving Huntington (d) sous le protonyme de Thecla maesites clenchi.
 </t>
@@ -542,9 +556,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorostrymon clenchi se nomme Dominican Hairstreak en anglais[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon clenchi se nomme Dominican Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostrymon clenchi est un petit papillon avec une petite fine queue à chaque aile postérieure.
 Le dessus du mâle est violet bordé de marron.
@@ -603,12 +621,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon clenchi est présent à la Dominique et en Guadeloupe
+</t>
         </is>
       </c>
     </row>
@@ -638,10 +659,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chlorostrymon clenchi est présent à la Dominique et en Guadeloupe[1]
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
